--- a/6 компаний.xlsx
+++ b/6 компаний.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackathon2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30EFE5-E9EB-48D5-A9B8-2FC199E01F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295FC61-7767-437E-AE18-D129DE81EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,9 +542,6 @@
     <t>ПРОТОКОЛ КОНТРОЛЯ ПАРАМЕТРОВ КАЧЕСТВА УСЛУГ ПОДВИЖНОЙ РАДИОТЕЛЕФОННОЙ СВЯЗИ № 32 от «12» сентября 2021 г.</t>
   </si>
   <si>
-    <t>ФИЛИАЛ ФГУП «ГРЧЦ» В СЕВЕР-КАВКАЗСКОМ ФЕДЕРАЛЬНОМ ОКРУГЕ</t>
-  </si>
-  <si>
     <t>МОТИВ</t>
   </si>
   <si>
@@ -552,6 +549,9 @@
   </si>
   <si>
     <t>ЧТОТОЕЩЕ</t>
+  </si>
+  <si>
+    <t>ФИЛИАЛ ФГУП «ГРЧЦ» В СИБИРСКОМ ФЕДЕРАЛЬНОМ ОКРУГЕ</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
@@ -2013,10 +2013,10 @@
         <v>164</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
